--- a/2022/SAMSUNG/JULY/28.07.2022/SAMSUNG Bank Statement July-2022.xlsx
+++ b/2022/SAMSUNG/JULY/28.07.2022/SAMSUNG Bank Statement July-2022.xlsx
@@ -3498,51 +3498,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3585,6 +3585,66 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3629,66 +3689,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6592,67 +6592,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="406" t="s">
+      <c r="A1" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="406"/>
-      <c r="P1" s="406"/>
-      <c r="Q1" s="406"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="M1" s="402"/>
+      <c r="N1" s="402"/>
+      <c r="O1" s="402"/>
+      <c r="P1" s="402"/>
+      <c r="Q1" s="402"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="407" t="s">
+      <c r="A2" s="403" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
-      <c r="K2" s="407"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="407"/>
-      <c r="N2" s="407"/>
-      <c r="O2" s="407"/>
-      <c r="P2" s="407"/>
-      <c r="Q2" s="407"/>
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="403"/>
+      <c r="K2" s="403"/>
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="403"/>
+      <c r="O2" s="403"/>
+      <c r="P2" s="403"/>
+      <c r="Q2" s="403"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="408" t="s">
+      <c r="A3" s="404" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="409"/>
-      <c r="C3" s="409"/>
-      <c r="D3" s="409"/>
-      <c r="E3" s="409"/>
-      <c r="F3" s="409"/>
-      <c r="G3" s="409"/>
-      <c r="H3" s="409"/>
-      <c r="I3" s="409"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
-      <c r="N3" s="409"/>
-      <c r="O3" s="409"/>
-      <c r="P3" s="409"/>
-      <c r="Q3" s="410"/>
+      <c r="B3" s="405"/>
+      <c r="C3" s="405"/>
+      <c r="D3" s="405"/>
+      <c r="E3" s="405"/>
+      <c r="F3" s="405"/>
+      <c r="G3" s="405"/>
+      <c r="H3" s="405"/>
+      <c r="I3" s="405"/>
+      <c r="J3" s="405"/>
+      <c r="K3" s="405"/>
+      <c r="L3" s="405"/>
+      <c r="M3" s="405"/>
+      <c r="N3" s="405"/>
+      <c r="O3" s="405"/>
+      <c r="P3" s="405"/>
+      <c r="Q3" s="406"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6661,52 +6661,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="411" t="s">
+      <c r="A4" s="407" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="413" t="s">
+      <c r="B4" s="409" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="402" t="s">
+      <c r="C4" s="411" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="402" t="s">
+      <c r="D4" s="411" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="402" t="s">
+      <c r="E4" s="411" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="402" t="s">
+      <c r="F4" s="411" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="402" t="s">
+      <c r="G4" s="411" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="402" t="s">
+      <c r="H4" s="411" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="402" t="s">
+      <c r="I4" s="411" t="s">
         <v>162</v>
       </c>
-      <c r="J4" s="402" t="s">
+      <c r="J4" s="411" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="402" t="s">
+      <c r="K4" s="411" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="402" t="s">
+      <c r="L4" s="411" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="402" t="s">
+      <c r="M4" s="411" t="s">
         <v>223</v>
       </c>
-      <c r="N4" s="402" t="s">
+      <c r="N4" s="411" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="404" t="s">
+      <c r="O4" s="415" t="s">
         <v>115</v>
       </c>
-      <c r="P4" s="415" t="s">
+      <c r="P4" s="413" t="s">
         <v>130</v>
       </c>
       <c r="Q4" s="118" t="s">
@@ -6719,22 +6719,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="412"/>
-      <c r="B5" s="414"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="403"/>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="403"/>
-      <c r="J5" s="403"/>
-      <c r="K5" s="403"/>
-      <c r="L5" s="403"/>
-      <c r="M5" s="403"/>
-      <c r="N5" s="403"/>
-      <c r="O5" s="405"/>
-      <c r="P5" s="416"/>
+      <c r="A5" s="408"/>
+      <c r="B5" s="410"/>
+      <c r="C5" s="412"/>
+      <c r="D5" s="412"/>
+      <c r="E5" s="412"/>
+      <c r="F5" s="412"/>
+      <c r="G5" s="412"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="412"/>
+      <c r="J5" s="412"/>
+      <c r="K5" s="412"/>
+      <c r="L5" s="412"/>
+      <c r="M5" s="412"/>
+      <c r="N5" s="412"/>
+      <c r="O5" s="416"/>
+      <c r="P5" s="414"/>
       <c r="Q5" s="119" t="s">
         <v>36</v>
       </c>
@@ -9840,6 +9840,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9856,9 +9859,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33773,7 +33773,7 @@
   <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33799,28 +33799,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="431" t="s">
+      <c r="A1" s="451" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="432"/>
-      <c r="C1" s="432"/>
-      <c r="D1" s="432"/>
-      <c r="E1" s="433"/>
+      <c r="B1" s="452"/>
+      <c r="C1" s="452"/>
+      <c r="D1" s="452"/>
+      <c r="E1" s="453"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="461"/>
-      <c r="J1" s="461"/>
-      <c r="K1" s="461"/>
+      <c r="I1" s="438"/>
+      <c r="J1" s="438"/>
+      <c r="K1" s="438"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="440" t="s">
+      <c r="A2" s="460" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="441"/>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="442"/>
+      <c r="B2" s="461"/>
+      <c r="C2" s="461"/>
+      <c r="D2" s="461"/>
+      <c r="E2" s="462"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33841,13 +33841,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="454" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="435"/>
-      <c r="C3" s="435"/>
-      <c r="D3" s="435"/>
-      <c r="E3" s="436"/>
+      <c r="B3" s="455"/>
+      <c r="C3" s="455"/>
+      <c r="D3" s="455"/>
+      <c r="E3" s="456"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33874,13 +33874,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="443" t="s">
+      <c r="A4" s="463" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="444"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="444"/>
-      <c r="E4" s="445"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="464"/>
+      <c r="D4" s="464"/>
+      <c r="E4" s="465"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -34377,11 +34377,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="285"/>
-      <c r="I17" s="462" t="s">
+      <c r="I17" s="431" t="s">
         <v>140</v>
       </c>
-      <c r="J17" s="462"/>
-      <c r="K17" s="462"/>
+      <c r="J17" s="431"/>
+      <c r="K17" s="431"/>
       <c r="L17" s="322">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34404,11 +34404,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="285"/>
-      <c r="I18" s="463" t="s">
+      <c r="I18" s="439" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="463"/>
-      <c r="K18" s="463"/>
+      <c r="J18" s="439"/>
+      <c r="K18" s="439"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34420,21 +34420,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="437" t="s">
+      <c r="A19" s="457" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="438"/>
-      <c r="C19" s="438"/>
-      <c r="D19" s="438"/>
-      <c r="E19" s="439"/>
+      <c r="B19" s="458"/>
+      <c r="C19" s="458"/>
+      <c r="D19" s="458"/>
+      <c r="E19" s="459"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="449" t="s">
+      <c r="I19" s="437" t="s">
         <v>176</v>
       </c>
-      <c r="J19" s="449"/>
-      <c r="K19" s="449"/>
+      <c r="J19" s="437"/>
+      <c r="K19" s="437"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34462,11 +34462,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="457" t="s">
+      <c r="I20" s="436" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="457"/>
-      <c r="K20" s="457"/>
+      <c r="J20" s="436"/>
+      <c r="K20" s="436"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34493,11 +34493,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="446" t="s">
+      <c r="I21" s="440" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="447"/>
-      <c r="K21" s="448"/>
+      <c r="J21" s="441"/>
+      <c r="K21" s="442"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34522,11 +34522,11 @@
       <c r="E22" s="245">
         <v>340740</v>
       </c>
-      <c r="I22" s="449" t="s">
+      <c r="I22" s="437" t="s">
         <v>181</v>
       </c>
-      <c r="J22" s="449"/>
-      <c r="K22" s="449"/>
+      <c r="J22" s="437"/>
+      <c r="K22" s="437"/>
       <c r="L22" s="363">
         <v>20000</v>
       </c>
@@ -34551,11 +34551,11 @@
       <c r="E23" s="245">
         <v>55170</v>
       </c>
-      <c r="I23" s="450" t="s">
+      <c r="I23" s="432" t="s">
         <v>221</v>
       </c>
-      <c r="J23" s="451"/>
-      <c r="K23" s="452"/>
+      <c r="J23" s="433"/>
+      <c r="K23" s="434"/>
       <c r="L23" s="363">
         <v>40000</v>
       </c>
@@ -34580,9 +34580,9 @@
       <c r="E24" s="311">
         <v>23000</v>
       </c>
-      <c r="I24" s="453"/>
-      <c r="J24" s="454"/>
-      <c r="K24" s="455"/>
+      <c r="I24" s="443"/>
+      <c r="J24" s="444"/>
+      <c r="K24" s="445"/>
       <c r="L24" s="343"/>
       <c r="M24" s="343"/>
       <c r="N24" s="7"/>
@@ -34605,11 +34605,11 @@
       <c r="E25" s="245">
         <v>15920</v>
       </c>
-      <c r="I25" s="462" t="s">
+      <c r="I25" s="431" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="462"/>
-      <c r="K25" s="462"/>
+      <c r="J25" s="431"/>
+      <c r="K25" s="431"/>
       <c r="L25" s="322">
         <f>L17-L18-L19-L20-L21-L22-L23-L24</f>
         <v>128150</v>
@@ -34675,13 +34675,13 @@
       <c r="E28" s="252">
         <v>300000</v>
       </c>
-      <c r="I28" s="458" t="s">
+      <c r="I28" s="446" t="s">
         <v>260</v>
       </c>
-      <c r="J28" s="459"/>
-      <c r="K28" s="459"/>
-      <c r="L28" s="459"/>
-      <c r="M28" s="460"/>
+      <c r="J28" s="447"/>
+      <c r="K28" s="447"/>
+      <c r="L28" s="447"/>
+      <c r="M28" s="448"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -34702,11 +34702,11 @@
       <c r="E29" s="252">
         <v>200000</v>
       </c>
-      <c r="I29" s="464" t="s">
+      <c r="I29" s="449" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="464"/>
-      <c r="K29" s="465"/>
+      <c r="J29" s="449"/>
+      <c r="K29" s="450"/>
       <c r="L29" s="391">
         <v>213170</v>
       </c>
@@ -34731,11 +34731,11 @@
       <c r="E30" s="321">
         <v>40000</v>
       </c>
-      <c r="I30" s="456" t="s">
+      <c r="I30" s="435" t="s">
         <v>167</v>
       </c>
-      <c r="J30" s="457"/>
-      <c r="K30" s="457"/>
+      <c r="J30" s="436"/>
+      <c r="K30" s="436"/>
       <c r="L30" s="387">
         <v>79500</v>
       </c>
@@ -34753,11 +34753,11 @@
       <c r="B31" s="33"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32"/>
-      <c r="I31" s="456" t="s">
+      <c r="I31" s="435" t="s">
         <v>167</v>
       </c>
-      <c r="J31" s="457"/>
-      <c r="K31" s="457"/>
+      <c r="J31" s="436"/>
+      <c r="K31" s="436"/>
       <c r="L31" s="387">
         <v>47500</v>
       </c>
@@ -34771,11 +34771,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="I32" s="456" t="s">
+      <c r="I32" s="435" t="s">
         <v>167</v>
       </c>
-      <c r="J32" s="457"/>
-      <c r="K32" s="457"/>
+      <c r="J32" s="436"/>
+      <c r="K32" s="436"/>
       <c r="L32" s="387">
         <v>50000</v>
       </c>
@@ -34790,9 +34790,9 @@
     </row>
     <row r="33" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="E33" s="14"/>
-      <c r="I33" s="450"/>
-      <c r="J33" s="451"/>
-      <c r="K33" s="452"/>
+      <c r="I33" s="432"/>
+      <c r="J33" s="433"/>
+      <c r="K33" s="434"/>
       <c r="L33" s="387"/>
       <c r="M33" s="387"/>
       <c r="N33" s="7"/>
@@ -34802,11 +34802,11 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="I34" s="462" t="s">
+      <c r="I34" s="431" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="462"/>
-      <c r="K34" s="462"/>
+      <c r="J34" s="431"/>
+      <c r="K34" s="431"/>
       <c r="L34" s="385">
         <f>L29-L30-L31-L32-L33</f>
         <v>36170</v>
@@ -37512,16 +37512,21 @@
     <sortCondition ref="D20"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I32:K32"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
@@ -37529,11 +37534,6 @@
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
